--- a/data/03輔助用表_監測國家清單.xlsx
+++ b/data/03輔助用表_監測國家清單.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaitseng\kaitsengcdc\003 my coding\cdc_eic_daily_news\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88378AF1-5988-4A86-9AEC-8E5652AA6EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5D3376-E82E-4BC0-890E-C08DBF268D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="監測-WHO-ISO-外網國家清單對照表" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>※目前有249個國家和地區。
@@ -70,6 +71,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">歐洲：聯合國分區
@@ -266,6 +268,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Albania</t>
     </r>
@@ -357,6 +360,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Andorra</t>
     </r>
@@ -469,6 +473,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Armenia</t>
     </r>
@@ -527,6 +532,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Australia</t>
     </r>
@@ -555,6 +561,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Austria</t>
     </r>
@@ -583,6 +590,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Azerbaijan</t>
     </r>
@@ -662,6 +670,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Belarus</t>
     </r>
@@ -690,6 +699,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Belgium</t>
     </r>
@@ -787,6 +797,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Bhutan</t>
     </r>
@@ -833,6 +844,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Bosnia and Herzegovina</t>
     </r>
@@ -894,6 +906,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Brunei Darussalam</t>
     </r>
@@ -922,6 +935,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Bulgaria</t>
     </r>
@@ -1001,6 +1015,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Cambodia</t>
     </r>
@@ -1134,6 +1149,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>China</t>
     </r>
@@ -1237,6 +1253,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Cook Islands</t>
     </r>
@@ -1298,6 +1315,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Croatia</t>
     </r>
@@ -1362,6 +1380,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Cyprus</t>
     </r>
@@ -1387,6 +1406,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Czechia</t>
     </r>
@@ -1418,6 +1438,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Democratic People’s Republic of Korea</t>
     </r>
@@ -1476,6 +1497,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Denmark</t>
     </r>
@@ -1651,6 +1673,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Estonia</t>
     </r>
@@ -1718,6 +1741,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Fiji</t>
     </r>
@@ -1749,6 +1773,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Finland</t>
     </r>
@@ -1774,6 +1799,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>France</t>
     </r>
@@ -1799,6 +1825,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>French Polynesia (France)</t>
     </r>
@@ -1881,6 +1908,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Georgia</t>
     </r>
@@ -1915,6 +1943,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Germany</t>
     </r>
@@ -1961,6 +1990,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Greece</t>
     </r>
@@ -2001,6 +2031,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Guam (USA)</t>
     </r>
@@ -2143,6 +2174,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Hong Kong SAR (China)</t>
     </r>
@@ -2180,6 +2212,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Hungary</t>
     </r>
@@ -2205,6 +2238,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Iceland</t>
     </r>
@@ -2230,6 +2264,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>India</t>
     </r>
@@ -2252,6 +2287,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Indonesia</t>
     </r>
@@ -2322,6 +2358,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Ireland</t>
     </r>
@@ -2359,6 +2396,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Israel</t>
     </r>
@@ -2384,6 +2422,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Italy</t>
     </r>
@@ -2424,6 +2463,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Japan</t>
     </r>
@@ -2464,6 +2504,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Kazakhstan</t>
     </r>
@@ -2507,6 +2548,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Kiribati</t>
     </r>
@@ -2532,6 +2574,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Republic of Korea</t>
     </r>
@@ -2587,6 +2630,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Kyrgyzstan</t>
     </r>
@@ -2612,6 +2656,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Lao People's Democratic Republic</t>
     </r>
@@ -2643,6 +2688,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Latvia</t>
     </r>
@@ -2734,6 +2780,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Lithuania</t>
     </r>
@@ -2759,6 +2806,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Luxembourg</t>
     </r>
@@ -2784,6 +2832,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Macao SAR (China)</t>
     </r>
@@ -2851,6 +2900,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Malaysia</t>
     </r>
@@ -2876,6 +2926,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Maldives</t>
     </r>
@@ -2922,6 +2973,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Malta</t>
     </r>
@@ -2947,6 +2999,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Marshall Islands</t>
     </r>
@@ -3023,6 +3076,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Micronesia, Federated States of</t>
     </r>
@@ -3057,6 +3111,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Republic of Moldova</t>
     </r>
@@ -3088,6 +3143,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Monaco</t>
     </r>
@@ -3113,6 +3169,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Mongolia</t>
     </r>
@@ -3138,6 +3195,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Montenegro</t>
     </r>
@@ -3217,6 +3275,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Myanmar</t>
     </r>
@@ -3257,6 +3316,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Nauru</t>
     </r>
@@ -3282,6 +3342,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Nepal</t>
     </r>
@@ -3304,6 +3365,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Netherlands (Kingdom of the)</t>
     </r>
@@ -3332,6 +3394,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>New Caledonia (France)</t>
     </r>
@@ -3366,6 +3429,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>New Zealand</t>
     </r>
@@ -3436,6 +3500,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Niue</t>
     </r>
@@ -3461,6 +3526,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>North Macedonia</t>
     </r>
@@ -3498,6 +3564,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Northern Mariana Islands (USA)</t>
     </r>
@@ -3535,6 +3602,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Norway</t>
     </r>
@@ -3590,6 +3658,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Palau</t>
     </r>
@@ -3660,6 +3729,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Papua New Guinea</t>
     </r>
@@ -3721,6 +3791,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Philippines</t>
     </r>
@@ -3746,6 +3817,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Pitcairn Islands (UK)</t>
     </r>
@@ -3786,6 +3858,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Poland</t>
     </r>
@@ -3811,6 +3884,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Portugal</t>
     </r>
@@ -3851,6 +3925,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Romania</t>
     </r>
@@ -3876,6 +3951,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Russian Federation</t>
     </r>
@@ -3973,6 +4049,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Samoa</t>
     </r>
@@ -3998,6 +4075,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>San Marino</t>
     </r>
@@ -4068,6 +4146,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Serbia</t>
     </r>
@@ -4129,6 +4208,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Singapore</t>
     </r>
@@ -4184,6 +4264,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Slovakia</t>
     </r>
@@ -4209,6 +4290,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Slovenia</t>
     </r>
@@ -4234,6 +4316,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Solomon Islands</t>
     </r>
@@ -4313,6 +4396,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Spain</t>
     </r>
@@ -4338,6 +4422,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Sri Lanka</t>
     </r>
@@ -4393,6 +4478,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Sweden</t>
     </r>
@@ -4418,6 +4504,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Switzerland</t>
     </r>
@@ -4464,6 +4551,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Tajikistan</t>
     </r>
@@ -4513,6 +4601,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Thailand</t>
     </r>
@@ -4538,6 +4627,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Timor-Leste</t>
     </r>
@@ -4584,6 +4674,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Tokelau</t>
     </r>
@@ -4618,6 +4709,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Tonga</t>
     </r>
@@ -4679,6 +4771,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Türkiye</t>
     </r>
@@ -4710,6 +4803,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Turkmenistan</t>
     </r>
@@ -4765,6 +4859,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Tuvalu</t>
     </r>
@@ -4805,6 +4900,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Ukraine</t>
     </r>
@@ -4848,6 +4944,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>United Kingdom of Great Britain and Northern Ireland</t>
     </r>
@@ -4906,6 +5003,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Uzbekistan</t>
     </r>
@@ -4931,6 +5029,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Vanuatu</t>
     </r>
@@ -4977,6 +5076,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Viet Nam</t>
     </r>
@@ -5038,6 +5138,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Wallis and Futuna (France)</t>
     </r>
@@ -7001,7 +7102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7013,42 +7114,50 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7056,12 +7165,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7106,13 +7217,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -7192,7 +7311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7340,9 +7459,10 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -7572,9 +7692,9 @@
   </sheetPr>
   <dimension ref="A1:X263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W240" sqref="W240"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L236" sqref="L236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34335,9 +34455,9 @@
   </sheetPr>
   <dimension ref="A1:Z211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35961,8 +36081,8 @@
       <c r="E63" s="46" t="s">
         <v>642</v>
       </c>
-      <c r="F63" s="46" t="s">
-        <v>246</v>
+      <c r="F63" s="60" t="s">
+        <v>2018</v>
       </c>
       <c r="G63" s="54" t="s">
         <v>24</v>
